--- a/Asset/Pearson Correlation.xlsx
+++ b/Asset/Pearson Correlation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alfonso's Personal File\Kuliah\Skripsi\Asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD898C36-860C-4361-A4B8-0176C2B14F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1ACF78F-12D0-4530-929A-0282DC2C8671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1B411816-2BFD-424D-ACAE-92DCC872A342}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1B411816-2BFD-424D-ACAE-92DCC872A342}"/>
   </bookViews>
   <sheets>
     <sheet name="Anies" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="24">
   <si>
     <t>X</t>
   </si>
@@ -79,12 +88,33 @@
   </si>
   <si>
     <t>Prabowo Subianto</t>
+  </si>
+  <si>
+    <t>Negatif</t>
+  </si>
+  <si>
+    <t>Elektabilitas</t>
+  </si>
+  <si>
+    <t>Korelasi Pearson</t>
+  </si>
+  <si>
+    <t>Korelasi Sentimen Positif</t>
+  </si>
+  <si>
+    <t>Korelasi Sentimen Negatif</t>
+  </si>
+  <si>
+    <t>Bulan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -122,7 +152,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -130,35 +160,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,29 +526,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C2DB9A-17D5-408C-A6AA-FBD09288F2A7}">
-  <dimension ref="B3:O41"/>
+  <dimension ref="B3:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>12</v>
       </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
       <c r="I5" t="s">
         <v>0</v>
       </c>
@@ -518,18 +578,30 @@
       <c r="O5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6">
         <v>845</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6">
+        <v>114</v>
+      </c>
       <c r="I6">
-        <f>C6</f>
-        <v>845</v>
+        <f>R6</f>
+        <v>0.88112617309697605</v>
       </c>
       <c r="J6" s="1">
         <f>C10</f>
@@ -537,7 +609,7 @@
       </c>
       <c r="K6">
         <f>I6-$I$10</f>
-        <v>39.666666666666629</v>
+        <v>-2.1297953235794753E-2</v>
       </c>
       <c r="L6" s="1">
         <f>J6-$J$10</f>
@@ -545,7 +617,7 @@
       </c>
       <c r="M6">
         <f>POWER(K6,2)</f>
-        <v>1573.4444444444414</v>
+        <v>4.5360281203410022E-4</v>
       </c>
       <c r="N6">
         <f>POWER(L6,2)</f>
@@ -553,84 +625,124 @@
       </c>
       <c r="O6">
         <f>K6*L6</f>
-        <v>-1.3817222222222207</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+        <v>7.4187870438018381E-4</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="11">
+        <v>0.88112617309697605</v>
+      </c>
+      <c r="S6" s="11">
+        <v>0.11887382690302398</v>
+      </c>
+      <c r="T6" s="11">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7">
         <v>945</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7">
+        <v>97</v>
+      </c>
       <c r="I7">
-        <f t="shared" ref="I7:I8" si="0">C7</f>
-        <v>945</v>
+        <f>R7</f>
+        <v>0.90690978886756235</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" ref="J7:J8" si="1">C11</f>
+        <f t="shared" ref="J7:J8" si="0">C11</f>
         <v>0.16949999999999998</v>
       </c>
       <c r="K7">
         <f>I7-$I$10</f>
-        <v>139.66666666666663</v>
+        <v>4.4856625347915458E-3</v>
       </c>
       <c r="L7" s="1">
         <f>J7-$J$10</f>
         <v>-1.5333333333333338E-2</v>
       </c>
       <c r="M7">
-        <f t="shared" ref="M7:M8" si="2">POWER(K7,2)</f>
-        <v>19506.777777777766</v>
+        <f t="shared" ref="M7:M8" si="1">POWER(K7,2)</f>
+        <v>2.0121168376032517E-5</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="N7:N8" si="3">POWER(L7,2)</f>
+        <f t="shared" ref="N7:N8" si="2">POWER(L7,2)</f>
         <v>2.3511111111111126E-4</v>
       </c>
       <c r="O7">
-        <f t="shared" ref="O7:O8" si="4">K7*L7</f>
-        <v>-2.1415555555555557</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O7:O8" si="3">K7*L7</f>
+        <v>-6.878015886680372E-5</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="11">
+        <v>0.90690978886756235</v>
+      </c>
+      <c r="S7" s="11">
+        <v>9.3090211132437622E-2</v>
+      </c>
+      <c r="T7" s="11">
+        <v>0.16949999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8">
         <v>626</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8">
+        <v>55</v>
+      </c>
       <c r="I8">
+        <f>R8</f>
+        <v>0.9192364170337739</v>
+      </c>
+      <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>626</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="1"/>
         <v>0.23500000000000001</v>
       </c>
       <c r="K8">
         <f>I8-$I$10</f>
-        <v>-179.33333333333337</v>
+        <v>1.6812290701003096E-2</v>
       </c>
       <c r="L8" s="1">
         <f>J8-$J$10</f>
         <v>5.0166666666666693E-2</v>
       </c>
       <c r="M8">
+        <f t="shared" si="1"/>
+        <v>2.8265311861503517E-4</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="2"/>
-        <v>32160.44444444446</v>
-      </c>
-      <c r="N8">
+        <v>2.5166944444444473E-3</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="3"/>
-        <v>2.5166944444444473E-3</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="4"/>
-        <v>-8.9965555555555614</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8.4341658350032243E-4</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8" s="11">
+        <v>0.9192364170337739</v>
+      </c>
+      <c r="S8" s="11">
+        <v>8.0763582966226141E-2</v>
+      </c>
+      <c r="T8" s="11">
+        <v>0.23500000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -638,27 +750,27 @@
         <v>0.15</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10" t="s">
         <v>2</v>
       </c>
       <c r="I10">
         <f>AVERAGE(I6:I8)</f>
-        <v>805.33333333333337</v>
+        <v>0.9024241263327708</v>
       </c>
       <c r="J10">
         <f>AVERAGE(J6:J8)</f>
         <v>0.18483333333333332</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="2"/>
+      <c r="L10" s="7"/>
       <c r="M10">
         <f>SUM(M6:M8)</f>
-        <v>53240.666666666672</v>
+        <v>7.5637709902516797E-4</v>
       </c>
       <c r="N10">
         <f>SUM(N6:N8)</f>
@@ -666,10 +778,10 @@
       </c>
       <c r="O10">
         <f>SUM(O6:O8)</f>
-        <v>-12.519833333333338</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+        <v>1.5165151290137025E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -677,11 +789,15 @@
         <v>0.16949999999999998</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="8"/>
+      <c r="Q11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="15"/>
+    </row>
+    <row r="12" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -689,66 +805,80 @@
         <v>0.23500000000000001</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7"/>
-      <c r="N12" s="6" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="8"/>
+      <c r="N12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="4">
         <f>O10/(SQRT(M10) * SQRT(N10))</f>
-        <v>-0.86168013655227926</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="N13" s="6" t="s">
+        <v>0.87568283815656922</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="14">
+        <v>0.87568283815656922</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="N13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="4">
         <f>O12*-1</f>
-        <v>0.86168013655227926</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
+        <v>-0.87568283815656922</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="R13" s="10">
+        <v>-0.87568283815656922</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
       <c r="J15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
       <c r="J16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+    <row r="17" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
       <c r="J17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="3"/>
       <c r="I18" t="s">
         <v>0</v>
       </c>
@@ -770,19 +900,32 @@
       <c r="O18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19">
         <v>890</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="D19" s="6">
+        <v>35</v>
+      </c>
       <c r="I19">
-        <f>C19</f>
-        <v>890</v>
+        <f>R19</f>
+        <v>0.96216216216216222</v>
       </c>
       <c r="J19" s="1">
         <f>C23</f>
@@ -790,7 +933,7 @@
       </c>
       <c r="K19">
         <f>I19-$I$10</f>
-        <v>84.666666666666629</v>
+        <v>5.9738035829391412E-2</v>
       </c>
       <c r="L19" s="1">
         <f>J19-$J$10</f>
@@ -798,7 +941,7 @@
       </c>
       <c r="M19">
         <f>POWER(K19,2)</f>
-        <v>7168.444444444438</v>
+        <v>3.5686329247536521E-3</v>
       </c>
       <c r="N19">
         <f>POWER(L19,2)</f>
@@ -806,116 +949,154 @@
       </c>
       <c r="O19">
         <f>K19*L19</f>
-        <v>7.7018444444444407</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5.4341699926136388E-3</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R19" s="11">
+        <v>0.96216216216216222</v>
+      </c>
+      <c r="S19" s="11">
+        <v>3.783783783783784E-2</v>
+      </c>
+      <c r="T19" s="11">
+        <v>0.27579999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20">
         <v>1083</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="D20" s="6">
+        <v>30</v>
+      </c>
       <c r="I20">
-        <f t="shared" ref="I20:I21" si="5">C20</f>
-        <v>1083</v>
+        <f>R20</f>
+        <v>0.97304582210242585</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" ref="J20:J21" si="6">C24</f>
+        <f t="shared" ref="J20:J21" si="4">C24</f>
         <v>0.23650000000000002</v>
       </c>
       <c r="K20">
         <f>I20-$I$10</f>
-        <v>277.66666666666663</v>
+        <v>7.0621695769655046E-2</v>
       </c>
       <c r="L20" s="1">
         <f>J20-$J$10</f>
         <v>5.1666666666666694E-2</v>
       </c>
       <c r="M20">
-        <f t="shared" ref="M20:M21" si="7">POWER(K20,2)</f>
-        <v>77098.777777777752</v>
+        <f t="shared" ref="M20:M21" si="5">POWER(K20,2)</f>
+        <v>4.9874239133817135E-3</v>
       </c>
       <c r="N20">
-        <f t="shared" ref="N20:N21" si="8">POWER(L20,2)</f>
+        <f t="shared" ref="N20:N21" si="6">POWER(L20,2)</f>
         <v>2.6694444444444474E-3</v>
       </c>
       <c r="O20">
-        <f t="shared" ref="O20:O21" si="9">K20*L20</f>
-        <v>14.346111111111117</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O20:O21" si="7">K20*L20</f>
+        <v>3.6487876147655125E-3</v>
+      </c>
+      <c r="Q20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R20" s="11">
+        <v>0.97304582210242585</v>
+      </c>
+      <c r="S20" s="11">
+        <v>2.6954177897574125E-2</v>
+      </c>
+      <c r="T20" s="11">
+        <v>0.23650000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>11</v>
       </c>
       <c r="C21">
         <v>1362</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="D21" s="6">
+        <v>82</v>
+      </c>
       <c r="I21">
-        <f t="shared" si="5"/>
-        <v>1362</v>
+        <f>R21</f>
+        <v>0.94321329639889195</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.28825000000000001</v>
       </c>
       <c r="K21">
         <f>I21-$I$10</f>
-        <v>556.66666666666663</v>
+        <v>4.078917006612115E-2</v>
       </c>
       <c r="L21" s="1">
         <f>J21-$J$10</f>
         <v>0.10341666666666668</v>
       </c>
       <c r="M21">
+        <f t="shared" si="5"/>
+        <v>1.6637563946829536E-3</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="6"/>
+        <v>1.0695006944444448E-2</v>
+      </c>
+      <c r="O21">
         <f t="shared" si="7"/>
-        <v>309877.77777777775</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="8"/>
-        <v>1.0695006944444448E-2</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="9"/>
-        <v>57.568611111111117</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>4.2182800043380295E-3</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="R21" s="11">
+        <v>0.94321329639889195</v>
+      </c>
+      <c r="S21" s="11">
+        <v>5.6786703601108032E-2</v>
+      </c>
+      <c r="T21" s="11">
+        <v>0.28825000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="1">
         <v>0.27579999999999999</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
       <c r="H23" t="s">
         <v>2</v>
       </c>
       <c r="I23">
         <f>AVERAGE(I19:I21)</f>
-        <v>1111.6666666666667</v>
+        <v>0.95947376022116015</v>
       </c>
       <c r="J23">
         <f>AVERAGE(J19:J21)</f>
         <v>0.26684999999999998</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L23" s="2"/>
+      <c r="L23" s="7"/>
       <c r="M23">
         <f>SUM(M19:M21)</f>
-        <v>394144.99999999994</v>
+        <v>1.021981323281832E-2</v>
       </c>
       <c r="N23">
         <f>SUM(N19:N21)</f>
@@ -923,65 +1104,84 @@
       </c>
       <c r="O23">
         <f>SUM(O19:O21)</f>
-        <v>79.616566666666671</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1.3301237611717181E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="1">
         <v>0.23650000000000002</v>
       </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="1">
         <v>0.28825000000000001</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="N25" s="6" t="s">
+      <c r="E25" s="2"/>
+      <c r="N25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25" s="4">
         <f>O23/(SQRT(M23) * SQRT(N23))</f>
-        <v>0.86209071843957008</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="3"/>
-      <c r="N26" s="6" t="s">
+        <v>0.89443360304261832</v>
+      </c>
+      <c r="Q25" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="R25" s="15"/>
+    </row>
+    <row r="26" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="2"/>
+      <c r="N26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26" s="4">
         <f>O25*-1</f>
-        <v>-0.86209071843957008</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E28" s="3"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>-0.89443360304261832</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="R26" s="14">
+        <v>0.89443360304261832</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="2"/>
+      <c r="Q27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="R27" s="10">
+        <v>-0.89443360304261832</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E28" s="2"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>12</v>
       </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
       <c r="I31" t="s">
         <v>0</v>
       </c>
@@ -1003,17 +1203,30 @@
       <c r="O31" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S31" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="T31" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>9</v>
       </c>
       <c r="C32">
         <v>1143</v>
       </c>
+      <c r="D32">
+        <v>11</v>
+      </c>
       <c r="I32">
-        <f>C32</f>
-        <v>1143</v>
+        <f>R32</f>
+        <v>0.99046793760831886</v>
       </c>
       <c r="J32" s="1">
         <f>C36</f>
@@ -1021,7 +1234,7 @@
       </c>
       <c r="K32">
         <f>I32-$I$10</f>
-        <v>337.66666666666663</v>
+        <v>8.8043811275548056E-2</v>
       </c>
       <c r="L32" s="1">
         <f>J32-$J$10</f>
@@ -1029,7 +1242,7 @@
       </c>
       <c r="M32">
         <f>POWER(K32,2)</f>
-        <v>114018.77777777775</v>
+        <v>7.7517127039243234E-3</v>
       </c>
       <c r="N32">
         <f>POWER(L32,2)</f>
@@ -1037,107 +1250,149 @@
       </c>
       <c r="O32">
         <f>K32*L32</f>
-        <v>10.794077777777787</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+        <v>2.8144671671083555E-3</v>
+      </c>
+      <c r="Q32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="R32" s="11">
+        <v>0.99046793760831886</v>
+      </c>
+      <c r="S32" s="11">
+        <v>9.5320623916811086E-3</v>
+      </c>
+      <c r="T32" s="11">
+        <v>0.21680000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>10</v>
       </c>
       <c r="C33">
         <v>1288</v>
       </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
       <c r="I33">
-        <f t="shared" ref="I33:I34" si="10">C33</f>
-        <v>1288</v>
+        <f>R33</f>
+        <v>0.99229583975346691</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" ref="J33:J34" si="11">C37</f>
+        <f t="shared" ref="J33:J34" si="8">C37</f>
         <v>0.24616666666666667</v>
       </c>
       <c r="K33">
         <f>I33-$I$10</f>
-        <v>482.66666666666663</v>
+        <v>8.9871713420696109E-2</v>
       </c>
       <c r="L33" s="1">
         <f>J33-$J$10</f>
         <v>6.1333333333333351E-2</v>
       </c>
       <c r="M33">
-        <f t="shared" ref="M33:M34" si="12">POWER(K33,2)</f>
-        <v>232967.11111111107</v>
+        <f t="shared" ref="M33:M34" si="9">POWER(K33,2)</f>
+        <v>8.0769248731717286E-3</v>
       </c>
       <c r="N33">
-        <f t="shared" ref="N33:N34" si="13">POWER(L33,2)</f>
+        <f t="shared" ref="N33:N34" si="10">POWER(L33,2)</f>
         <v>3.7617777777777801E-3</v>
       </c>
       <c r="O33">
-        <f t="shared" ref="O33:O34" si="14">K33*L33</f>
-        <v>29.603555555555563</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O33:O34" si="11">K33*L33</f>
+        <v>5.5121317564693628E-3</v>
+      </c>
+      <c r="Q33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R33" s="11">
+        <v>0.99229583975346691</v>
+      </c>
+      <c r="S33" s="11">
+        <v>7.7041602465331279E-3</v>
+      </c>
+      <c r="T33" s="11">
+        <v>0.24616666666666667</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34">
         <v>954</v>
       </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
       <c r="I34">
-        <f t="shared" si="10"/>
-        <v>954</v>
+        <f>R34</f>
+        <v>0.997907949790795</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0.23119999999999999</v>
       </c>
       <c r="K34">
         <f>I34-$I$10</f>
-        <v>148.66666666666663</v>
+        <v>9.5483823458024197E-2</v>
       </c>
       <c r="L34" s="1">
         <f>J34-$J$10</f>
         <v>4.6366666666666667E-2</v>
       </c>
       <c r="M34">
-        <f t="shared" si="12"/>
-        <v>22101.777777777766</v>
+        <f t="shared" si="9"/>
+        <v>9.1171605421631313E-3</v>
       </c>
       <c r="N34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>2.1498677777777777E-3</v>
       </c>
       <c r="O34">
-        <f t="shared" si="14"/>
-        <v>6.8931777777777761</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>4.4272666143370552E-3</v>
+      </c>
+      <c r="Q34" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R34" s="11">
+        <v>0.997907949790795</v>
+      </c>
+      <c r="S34" s="11">
+        <v>2.0920502092050207E-3</v>
+      </c>
+      <c r="T34" s="11">
+        <v>0.23119999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="1">
         <v>0.21680000000000002</v>
       </c>
-      <c r="F36" s="3"/>
+      <c r="F36" s="2"/>
       <c r="H36" t="s">
         <v>2</v>
       </c>
       <c r="I36">
         <f>AVERAGE(I32:I34)</f>
-        <v>1128.3333333333333</v>
+        <v>0.99355724238419363</v>
       </c>
       <c r="J36">
         <f>AVERAGE(J32:J34)</f>
         <v>0.23138888888888889</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K36" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L36" s="2"/>
+      <c r="L36" s="7"/>
       <c r="M36">
         <f>SUM(M32:M34)</f>
-        <v>369087.66666666657</v>
+        <v>2.4945798119259184E-2</v>
       </c>
       <c r="N36">
         <f>SUM(N32:N34)</f>
@@ -1145,52 +1400,71 @@
       </c>
       <c r="O36">
         <f>SUM(O32:O34)</f>
-        <v>47.290811111111125</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.2753865537914775E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="1">
         <v>0.24616666666666667</v>
       </c>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="1">
         <v>0.23119999999999999</v>
       </c>
-      <c r="F38" s="4"/>
-      <c r="N38" s="6" t="s">
+      <c r="F38" s="3"/>
+      <c r="N38" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O38" s="6">
+      <c r="O38" s="4">
         <f>O36/(SQRT(M36) * SQRT(N36))</f>
-        <v>0.93483576391259449</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F39" s="3"/>
-      <c r="N39" s="6" t="s">
+        <v>0.96976488593233079</v>
+      </c>
+      <c r="Q38" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="R38" s="15"/>
+    </row>
+    <row r="39" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F39" s="2"/>
+      <c r="N39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O39" s="6">
+      <c r="O39" s="4">
         <f>O38*-1</f>
-        <v>-0.93483576391259449</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F41" s="3"/>
+        <v>-0.96976488593233079</v>
+      </c>
+      <c r="Q39" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="R39" s="14">
+        <v>0.96976488593233079</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F40" s="2"/>
+      <c r="Q40" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="R40" s="14">
+        <v>-0.96976488593233079</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F41" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q38:R38"/>
     <mergeCell ref="K36:L36"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>

--- a/Asset/Pearson Correlation.xlsx
+++ b/Asset/Pearson Correlation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alfonso's Personal File\Kuliah\Skripsi\Asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1ACF78F-12D0-4530-929A-0282DC2C8671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30A8757-A473-46C6-B990-6ECE87B92F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1B411816-2BFD-424D-ACAE-92DCC872A342}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1B411816-2BFD-424D-ACAE-92DCC872A342}"/>
   </bookViews>
   <sheets>
     <sheet name="Anies" sheetId="1" r:id="rId1"/>
@@ -20,24 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="24">
-  <si>
-    <t>X</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="25">
   <si>
     <t>Y</t>
   </si>
@@ -106,6 +94,12 @@
   </si>
   <si>
     <t>Bulan</t>
+  </si>
+  <si>
+    <t>X +</t>
+  </si>
+  <si>
+    <t>X -</t>
   </si>
 </sst>
 </file>
@@ -113,7 +107,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -179,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -195,7 +189,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -203,14 +204,6 @@
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C2DB9A-17D5-408C-A6AA-FBD09288F2A7}">
   <dimension ref="B3:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,51 +540,54 @@
   <sheetData>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>845</v>
@@ -599,8 +595,12 @@
       <c r="D6">
         <v>114</v>
       </c>
+      <c r="H6">
+        <f>D6/SUM(C6:D6)</f>
+        <v>0.11887382690302398</v>
+      </c>
       <c r="I6">
-        <f>R6</f>
+        <f>C6/SUM(C6:D6)</f>
         <v>0.88112617309697605</v>
       </c>
       <c r="J6" s="1">
@@ -627,22 +627,22 @@
         <f>K6*L6</f>
         <v>7.4187870438018381E-4</v>
       </c>
-      <c r="Q6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="11">
+      <c r="Q6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="R6" s="8">
         <v>0.88112617309697605</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="8">
         <v>0.11887382690302398</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="8">
         <v>0.15</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>945</v>
@@ -650,12 +650,16 @@
       <c r="D7">
         <v>97</v>
       </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H8" si="0">D7/SUM(C7:D7)</f>
+        <v>9.3090211132437622E-2</v>
+      </c>
       <c r="I7">
-        <f>R7</f>
+        <f t="shared" ref="I7:I8" si="1">C7/SUM(C7:D7)</f>
         <v>0.90690978886756235</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" ref="J7:J8" si="0">C11</f>
+        <f t="shared" ref="J7:J8" si="2">C11</f>
         <v>0.16949999999999998</v>
       </c>
       <c r="K7">
@@ -667,33 +671,33 @@
         <v>-1.5333333333333338E-2</v>
       </c>
       <c r="M7">
-        <f t="shared" ref="M7:M8" si="1">POWER(K7,2)</f>
+        <f t="shared" ref="M7:M8" si="3">POWER(K7,2)</f>
         <v>2.0121168376032517E-5</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="N7:N8" si="2">POWER(L7,2)</f>
+        <f t="shared" ref="N7:N8" si="4">POWER(L7,2)</f>
         <v>2.3511111111111126E-4</v>
       </c>
       <c r="O7">
-        <f t="shared" ref="O7:O8" si="3">K7*L7</f>
+        <f t="shared" ref="O7:O8" si="5">K7*L7</f>
         <v>-6.878015886680372E-5</v>
       </c>
-      <c r="Q7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="R7" s="11">
+      <c r="Q7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="8">
         <v>0.90690978886756235</v>
       </c>
-      <c r="S7" s="11">
+      <c r="S7" s="8">
         <v>9.3090211132437622E-2</v>
       </c>
-      <c r="T7" s="11">
+      <c r="T7" s="8">
         <v>0.16949999999999998</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>626</v>
@@ -701,12 +705,16 @@
       <c r="D8">
         <v>55</v>
       </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>8.0763582966226141E-2</v>
+      </c>
       <c r="I8">
-        <f>R8</f>
+        <f t="shared" si="1"/>
         <v>0.9192364170337739</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.23500000000000001</v>
       </c>
       <c r="K8">
@@ -718,33 +726,33 @@
         <v>5.0166666666666693E-2</v>
       </c>
       <c r="M8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.8265311861503517E-4</v>
       </c>
       <c r="N8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5166944444444473E-3</v>
       </c>
       <c r="O8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.4341658350032243E-4</v>
       </c>
-      <c r="Q8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="R8" s="11">
+      <c r="Q8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" s="8">
         <v>0.9192364170337739</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S8" s="8">
         <v>8.0763582966226141E-2</v>
       </c>
-      <c r="T8" s="11">
+      <c r="T8" s="8">
         <v>0.23500000000000001</v>
       </c>
     </row>
     <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <v>0.15</v>
@@ -752,9 +760,12 @@
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" t="s">
-        <v>2</v>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f>AVERAGE(H6:H8)</f>
+        <v>9.7575873667229251E-2</v>
       </c>
       <c r="I10">
         <f>AVERAGE(I6:I8)</f>
@@ -764,10 +775,10 @@
         <f>AVERAGE(J6:J8)</f>
         <v>0.18483333333333332</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" s="7"/>
+      <c r="K10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="11"/>
       <c r="M10">
         <f>SUM(M6:M8)</f>
         <v>7.5637709902516797E-4</v>
@@ -783,42 +794,42 @@
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
         <v>0.16949999999999998</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="8"/>
-      <c r="Q11" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="R11" s="15"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="13"/>
+      <c r="Q11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="12"/>
     </row>
     <row r="12" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1">
         <v>0.23500000000000001</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="8"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="13"/>
       <c r="N12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O12" s="4">
         <f>O10/(SQRT(M10) * SQRT(N10))</f>
         <v>0.87568283815656922</v>
       </c>
-      <c r="Q12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="14">
+      <c r="Q12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="10">
         <v>0.87568283815656922</v>
       </c>
     </row>
@@ -827,16 +838,16 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="N13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O13" s="4">
-        <f>O12*-1</f>
-        <v>-0.87568283815656922</v>
-      </c>
-      <c r="Q13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="R13" s="10">
+        <f>CORREL(H6:H8,J6:J8)</f>
+        <v>-0.87568283815656855</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" s="7">
         <v>-0.87568283815656922</v>
       </c>
     </row>
@@ -856,7 +867,7 @@
     </row>
     <row r="16" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -873,49 +884,52 @@
     </row>
     <row r="18" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="T18" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="I18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>6</v>
-      </c>
-      <c r="O18" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="S18" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="T18" s="12" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>890</v>
@@ -923,8 +937,12 @@
       <c r="D19" s="6">
         <v>35</v>
       </c>
+      <c r="H19">
+        <f>D19/SUM(C19:D19)</f>
+        <v>3.783783783783784E-2</v>
+      </c>
       <c r="I19">
-        <f>R19</f>
+        <f>C19/SUM(C19:D19)</f>
         <v>0.96216216216216222</v>
       </c>
       <c r="J19" s="1">
@@ -951,22 +969,22 @@
         <f>K19*L19</f>
         <v>5.4341699926136388E-3</v>
       </c>
-      <c r="Q19" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="R19" s="11">
+      <c r="Q19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R19" s="8">
         <v>0.96216216216216222</v>
       </c>
-      <c r="S19" s="11">
+      <c r="S19" s="8">
         <v>3.783783783783784E-2</v>
       </c>
-      <c r="T19" s="11">
+      <c r="T19" s="8">
         <v>0.27579999999999999</v>
       </c>
     </row>
     <row r="20" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>1083</v>
@@ -974,12 +992,16 @@
       <c r="D20" s="6">
         <v>30</v>
       </c>
+      <c r="H20">
+        <f t="shared" ref="H20:H21" si="6">D20/SUM(C20:D20)</f>
+        <v>2.6954177897574125E-2</v>
+      </c>
       <c r="I20">
-        <f>R20</f>
+        <f t="shared" ref="I20:I21" si="7">C20/SUM(C20:D20)</f>
         <v>0.97304582210242585</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" ref="J20:J21" si="4">C24</f>
+        <f t="shared" ref="J20:J21" si="8">C24</f>
         <v>0.23650000000000002</v>
       </c>
       <c r="K20">
@@ -991,33 +1013,33 @@
         <v>5.1666666666666694E-2</v>
       </c>
       <c r="M20">
-        <f t="shared" ref="M20:M21" si="5">POWER(K20,2)</f>
+        <f t="shared" ref="M20:M21" si="9">POWER(K20,2)</f>
         <v>4.9874239133817135E-3</v>
       </c>
       <c r="N20">
-        <f t="shared" ref="N20:N21" si="6">POWER(L20,2)</f>
+        <f t="shared" ref="N20:N21" si="10">POWER(L20,2)</f>
         <v>2.6694444444444474E-3</v>
       </c>
       <c r="O20">
-        <f t="shared" ref="O20:O21" si="7">K20*L20</f>
+        <f t="shared" ref="O20:O21" si="11">K20*L20</f>
         <v>3.6487876147655125E-3</v>
       </c>
-      <c r="Q20" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R20" s="11">
+      <c r="Q20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R20" s="8">
         <v>0.97304582210242585</v>
       </c>
-      <c r="S20" s="11">
+      <c r="S20" s="8">
         <v>2.6954177897574125E-2</v>
       </c>
-      <c r="T20" s="11">
+      <c r="T20" s="8">
         <v>0.23650000000000002</v>
       </c>
     </row>
     <row r="21" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>1362</v>
@@ -1025,12 +1047,16 @@
       <c r="D21" s="6">
         <v>82</v>
       </c>
+      <c r="H21">
+        <f t="shared" si="6"/>
+        <v>5.6786703601108032E-2</v>
+      </c>
       <c r="I21">
-        <f>R21</f>
+        <f t="shared" si="7"/>
         <v>0.94321329639889195</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.28825000000000001</v>
       </c>
       <c r="K21">
@@ -1042,27 +1068,27 @@
         <v>0.10341666666666668</v>
       </c>
       <c r="M21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.6637563946829536E-3</v>
       </c>
       <c r="N21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.0695006944444448E-2</v>
       </c>
       <c r="O21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.2182800043380295E-3</v>
       </c>
-      <c r="Q21" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R21" s="11">
+      <c r="Q21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R21" s="8">
         <v>0.94321329639889195</v>
       </c>
-      <c r="S21" s="11">
+      <c r="S21" s="8">
         <v>5.6786703601108032E-2</v>
       </c>
-      <c r="T21" s="11">
+      <c r="T21" s="8">
         <v>0.28825000000000001</v>
       </c>
     </row>
@@ -1072,15 +1098,19 @@
     </row>
     <row r="23" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" s="1">
         <v>0.27579999999999999</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="H23" t="s">
-        <v>2</v>
+      <c r="G23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f>AVERAGE(H19:H21)</f>
+        <v>4.0526239778839998E-2</v>
       </c>
       <c r="I23">
         <f>AVERAGE(I19:I21)</f>
@@ -1090,10 +1120,10 @@
         <f>AVERAGE(J19:J21)</f>
         <v>0.26684999999999998</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L23" s="7"/>
+      <c r="K23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="11"/>
       <c r="M23">
         <f>SUM(M19:M21)</f>
         <v>1.021981323281832E-2</v>
@@ -1109,7 +1139,7 @@
     </row>
     <row r="24" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1">
         <v>0.23650000000000002</v>
@@ -1118,57 +1148,57 @@
     </row>
     <row r="25" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1">
         <v>0.28825000000000001</v>
       </c>
       <c r="E25" s="2"/>
       <c r="N25" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O25" s="4">
         <f>O23/(SQRT(M23) * SQRT(N23))</f>
         <v>0.89443360304261832</v>
       </c>
-      <c r="Q25" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="R25" s="15"/>
+      <c r="Q25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R25" s="12"/>
     </row>
     <row r="26" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E26" s="2"/>
       <c r="N26" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O26" s="4">
         <f>O25*-1</f>
         <v>-0.89443360304261832</v>
       </c>
-      <c r="Q26" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="R26" s="14">
+      <c r="Q26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R26" s="10">
         <v>0.89443360304261832</v>
       </c>
     </row>
     <row r="27" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E27" s="2"/>
-      <c r="Q27" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="R27" s="10">
+      <c r="Q27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R27" s="7">
         <v>-0.89443360304261832</v>
       </c>
     </row>
     <row r="28" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E28" s="2"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
     </row>
     <row r="29" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29" s="5"/>
     </row>
@@ -1177,46 +1207,49 @@
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" t="s">
+        <v>3</v>
+      </c>
+      <c r="M31" t="s">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>5</v>
+      </c>
+      <c r="O31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="T31" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="I31" t="s">
-        <v>0</v>
-      </c>
-      <c r="J31" t="s">
-        <v>1</v>
-      </c>
-      <c r="K31" t="s">
-        <v>3</v>
-      </c>
-      <c r="L31" t="s">
-        <v>4</v>
-      </c>
-      <c r="M31" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" t="s">
-        <v>6</v>
-      </c>
-      <c r="O31" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="S31" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="T31" s="12" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32">
         <v>1143</v>
@@ -1224,8 +1257,12 @@
       <c r="D32">
         <v>11</v>
       </c>
+      <c r="H32">
+        <f>D32/SUM(C32:D32)</f>
+        <v>9.5320623916811086E-3</v>
+      </c>
       <c r="I32">
-        <f>R32</f>
+        <f>C32/SUM(C32:D32)</f>
         <v>0.99046793760831886</v>
       </c>
       <c r="J32" s="1">
@@ -1241,33 +1278,33 @@
         <v>3.1966666666666699E-2</v>
       </c>
       <c r="M32">
-        <f>POWER(K32,2)</f>
+        <f t="shared" ref="M32:N34" si="12">POWER(K32,2)</f>
         <v>7.7517127039243234E-3</v>
       </c>
       <c r="N32">
-        <f>POWER(L32,2)</f>
+        <f t="shared" si="12"/>
         <v>1.0218677777777798E-3</v>
       </c>
       <c r="O32">
         <f>K32*L32</f>
         <v>2.8144671671083555E-3</v>
       </c>
-      <c r="Q32" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="R32" s="11">
+      <c r="Q32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="R32" s="8">
         <v>0.99046793760831886</v>
       </c>
-      <c r="S32" s="11">
+      <c r="S32" s="8">
         <v>9.5320623916811086E-3</v>
       </c>
-      <c r="T32" s="11">
+      <c r="T32" s="8">
         <v>0.21680000000000002</v>
       </c>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33">
         <v>1288</v>
@@ -1275,12 +1312,16 @@
       <c r="D33">
         <v>10</v>
       </c>
+      <c r="H33">
+        <f t="shared" ref="H33:H34" si="13">D33/SUM(C33:D33)</f>
+        <v>7.7041602465331279E-3</v>
+      </c>
       <c r="I33">
-        <f>R33</f>
+        <f t="shared" ref="I33:I34" si="14">C33/SUM(C33:D33)</f>
         <v>0.99229583975346691</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" ref="J33:J34" si="8">C37</f>
+        <f>C37</f>
         <v>0.24616666666666667</v>
       </c>
       <c r="K33">
@@ -1292,33 +1333,33 @@
         <v>6.1333333333333351E-2</v>
       </c>
       <c r="M33">
-        <f t="shared" ref="M33:M34" si="9">POWER(K33,2)</f>
+        <f t="shared" si="12"/>
         <v>8.0769248731717286E-3</v>
       </c>
       <c r="N33">
-        <f t="shared" ref="N33:N34" si="10">POWER(L33,2)</f>
+        <f t="shared" si="12"/>
         <v>3.7617777777777801E-3</v>
       </c>
       <c r="O33">
-        <f t="shared" ref="O33:O34" si="11">K33*L33</f>
+        <f>K33*L33</f>
         <v>5.5121317564693628E-3</v>
       </c>
-      <c r="Q33" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="R33" s="11">
+      <c r="Q33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R33" s="8">
         <v>0.99229583975346691</v>
       </c>
-      <c r="S33" s="11">
+      <c r="S33" s="8">
         <v>7.7041602465331279E-3</v>
       </c>
-      <c r="T33" s="11">
+      <c r="T33" s="8">
         <v>0.24616666666666667</v>
       </c>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34">
         <v>954</v>
@@ -1326,12 +1367,16 @@
       <c r="D34">
         <v>2</v>
       </c>
+      <c r="H34">
+        <f t="shared" si="13"/>
+        <v>2.0920502092050207E-3</v>
+      </c>
       <c r="I34">
-        <f>R34</f>
+        <f t="shared" si="14"/>
         <v>0.997907949790795</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="8"/>
+        <f>C38</f>
         <v>0.23119999999999999</v>
       </c>
       <c r="K34">
@@ -1343,40 +1388,44 @@
         <v>4.6366666666666667E-2</v>
       </c>
       <c r="M34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9.1171605421631313E-3</v>
       </c>
       <c r="N34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.1498677777777777E-3</v>
       </c>
       <c r="O34">
-        <f t="shared" si="11"/>
+        <f>K34*L34</f>
         <v>4.4272666143370552E-3</v>
       </c>
-      <c r="Q34" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="R34" s="11">
+      <c r="Q34" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R34" s="8">
         <v>0.997907949790795</v>
       </c>
-      <c r="S34" s="11">
+      <c r="S34" s="8">
         <v>2.0920502092050207E-3</v>
       </c>
-      <c r="T34" s="11">
+      <c r="T34" s="8">
         <v>0.23119999999999999</v>
       </c>
     </row>
     <row r="36" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" s="1">
         <v>0.21680000000000002</v>
       </c>
       <c r="F36" s="2"/>
-      <c r="H36" t="s">
-        <v>2</v>
+      <c r="G36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <f>AVERAGE(H32:H34)</f>
+        <v>6.4427576158064192E-3</v>
       </c>
       <c r="I36">
         <f>AVERAGE(I32:I34)</f>
@@ -1386,10 +1435,10 @@
         <f>AVERAGE(J32:J34)</f>
         <v>0.23138888888888889</v>
       </c>
-      <c r="K36" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L36" s="7"/>
+      <c r="K36" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L36" s="11"/>
       <c r="M36">
         <f>SUM(M32:M34)</f>
         <v>2.4945798119259184E-2</v>
@@ -1405,7 +1454,7 @@
     </row>
     <row r="37" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37" s="1">
         <v>0.24616666666666667</v>
@@ -1414,46 +1463,46 @@
     </row>
     <row r="38" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38" s="1">
         <v>0.23119999999999999</v>
       </c>
       <c r="F38" s="3"/>
       <c r="N38" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O38" s="4">
         <f>O36/(SQRT(M36) * SQRT(N36))</f>
         <v>0.96976488593233079</v>
       </c>
-      <c r="Q38" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="R38" s="15"/>
+      <c r="Q38" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R38" s="12"/>
     </row>
     <row r="39" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F39" s="2"/>
       <c r="N39" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O39" s="4">
         <f>O38*-1</f>
         <v>-0.96976488593233079</v>
       </c>
-      <c r="Q39" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="R39" s="14">
+      <c r="Q39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R39" s="10">
         <v>0.96976488593233079</v>
       </c>
     </row>
     <row r="40" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F40" s="2"/>
-      <c r="Q40" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="R40" s="14">
+      <c r="Q40" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R40" s="10">
         <v>-0.96976488593233079</v>
       </c>
     </row>
@@ -1462,8 +1511,6 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q25:R25"/>
     <mergeCell ref="Q38:R38"/>
     <mergeCell ref="K36:L36"/>
     <mergeCell ref="E11:E12"/>
@@ -1472,6 +1519,8 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="K23:L23"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q25:R25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
